--- a/TextInfo/excel/SkillBuff.xlsx
+++ b/TextInfo/excel/SkillBuff.xlsx
@@ -767,7 +767,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -869,7 +869,7 @@
         <v>-1</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>3</v>

--- a/TextInfo/excel/SkillBuff.xlsx
+++ b/TextInfo/excel/SkillBuff.xlsx
@@ -143,7 +143,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>对小属性的英雄</t>
+          <t>对小属性的影响</t>
         </r>
         <r>
           <rPr>
@@ -767,7 +767,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>3</v>
